--- a/lab-1/statistics.xlsx
+++ b/lab-1/statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\local_gud2i5y\GitHub\kpi-machine-learning\lab-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A03A9CB-8DF0-4859-AB02-CE79C4886811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BE6747-5668-466A-92F7-E79A4B5CBE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{95ACEB91-31BB-49A4-A63C-009BFE40337F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>Автономна Республіка Крим</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Регіони та області</t>
+  </si>
+  <si>
+    <t>Україна</t>
   </si>
 </sst>
 </file>
@@ -158,7 +161,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -181,11 +184,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -199,11 +241,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,911 +570,943 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF3415A-AA7B-44F4-81FD-26204B17B42D}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" style="5" customWidth="1"/>
     <col min="2" max="10" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="7">
         <v>2013</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="8">
         <v>2014</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="7">
         <v>2015</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="8">
         <v>2016</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="7">
         <v>2017</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="8">
         <v>2018</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="7">
         <v>2019</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="8">
         <v>2020</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="7">
         <v>2021</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>22793</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2">
+        <v>26719</v>
+      </c>
+      <c r="C2" s="2">
+        <v>26782</v>
+      </c>
+      <c r="D2" s="2">
+        <v>31803</v>
+      </c>
+      <c r="E2" s="2">
+        <v>37080</v>
+      </c>
+      <c r="F2" s="2">
+        <v>47270</v>
+      </c>
+      <c r="G2" s="2">
+        <v>58442</v>
+      </c>
+      <c r="H2" s="3">
+        <v>69140</v>
+      </c>
+      <c r="I2" s="3">
+        <v>74688</v>
+      </c>
+      <c r="J2" s="3">
+        <v>90036</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>23001</v>
-      </c>
-      <c r="C3" s="1">
-        <v>23422</v>
-      </c>
-      <c r="D3" s="1">
-        <v>29637</v>
-      </c>
-      <c r="E3" s="1">
-        <v>34931</v>
-      </c>
-      <c r="F3" s="1">
-        <v>45436</v>
-      </c>
-      <c r="G3" s="1">
-        <v>55734</v>
-      </c>
-      <c r="H3" s="1">
-        <v>65503</v>
-      </c>
-      <c r="I3" s="1">
-        <v>70939</v>
-      </c>
-      <c r="J3" s="1">
-        <v>86274</v>
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>22793</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>19805</v>
+        <v>23001</v>
       </c>
       <c r="C4" s="1">
-        <v>20137</v>
+        <v>23422</v>
       </c>
       <c r="D4" s="1">
-        <v>24980</v>
+        <v>29637</v>
       </c>
       <c r="E4" s="1">
-        <v>30013</v>
+        <v>34931</v>
       </c>
       <c r="F4" s="1">
-        <v>38514</v>
+        <v>45436</v>
       </c>
       <c r="G4" s="1">
-        <v>46120</v>
+        <v>55734</v>
       </c>
       <c r="H4" s="1">
-        <v>53990</v>
+        <v>65503</v>
       </c>
       <c r="I4" s="1">
-        <v>57973</v>
+        <v>70939</v>
       </c>
       <c r="J4" s="1">
-        <v>70061</v>
+        <v>86274</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>30301</v>
+        <v>19805</v>
       </c>
       <c r="C5" s="1">
-        <v>32036</v>
+        <v>20137</v>
       </c>
       <c r="D5" s="1">
-        <v>39142</v>
+        <v>24980</v>
       </c>
       <c r="E5" s="1">
-        <v>44366</v>
+        <v>30013</v>
       </c>
       <c r="F5" s="1">
-        <v>57333</v>
+        <v>38514</v>
       </c>
       <c r="G5" s="1">
-        <v>74755</v>
+        <v>46120</v>
       </c>
       <c r="H5" s="1">
-        <v>89042</v>
+        <v>53990</v>
       </c>
       <c r="I5" s="1">
-        <v>94804</v>
+        <v>57973</v>
       </c>
       <c r="J5" s="1">
-        <v>113085</v>
+        <v>70061</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>31049</v>
+        <v>30301</v>
       </c>
       <c r="C6" s="1">
-        <v>26234</v>
+        <v>32036</v>
       </c>
       <c r="D6" s="1">
-        <v>21346</v>
+        <v>39142</v>
       </c>
       <c r="E6" s="1">
-        <v>20927</v>
+        <v>44366</v>
       </c>
       <c r="F6" s="1">
-        <v>25278</v>
+        <v>57333</v>
       </c>
       <c r="G6" s="1">
-        <v>33840</v>
+        <v>74755</v>
       </c>
       <c r="H6" s="1">
-        <v>39843</v>
+        <v>89042</v>
       </c>
       <c r="I6" s="1">
-        <v>42219</v>
+        <v>94804</v>
       </c>
       <c r="J6" s="1">
-        <v>49217</v>
+        <v>113085</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>21652</v>
+        <v>31049</v>
       </c>
       <c r="C7" s="1">
-        <v>22102</v>
+        <v>26234</v>
       </c>
       <c r="D7" s="1">
-        <v>27801</v>
+        <v>21346</v>
       </c>
       <c r="E7" s="1">
-        <v>32979</v>
+        <v>20927</v>
       </c>
       <c r="F7" s="1">
-        <v>42684</v>
+        <v>25278</v>
       </c>
       <c r="G7" s="1">
-        <v>52715</v>
+        <v>33840</v>
       </c>
       <c r="H7" s="1">
-        <v>62571</v>
+        <v>39843</v>
       </c>
       <c r="I7" s="1">
-        <v>66651</v>
+        <v>42219</v>
       </c>
       <c r="J7" s="1">
-        <v>79328</v>
+        <v>49217</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>17929</v>
+        <v>21652</v>
       </c>
       <c r="C8" s="1">
-        <v>17358</v>
+        <v>22102</v>
       </c>
       <c r="D8" s="1">
-        <v>22457</v>
+        <v>27801</v>
       </c>
       <c r="E8" s="1">
-        <v>26856</v>
+        <v>32979</v>
       </c>
       <c r="F8" s="1">
-        <v>33891</v>
+        <v>42684</v>
       </c>
       <c r="G8" s="1">
-        <v>41418</v>
+        <v>52715</v>
       </c>
       <c r="H8" s="1">
-        <v>47852</v>
+        <v>62571</v>
       </c>
       <c r="I8" s="1">
-        <v>52379</v>
+        <v>66651</v>
       </c>
       <c r="J8" s="1">
-        <v>60386</v>
+        <v>79328</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>28388</v>
+        <v>17929</v>
       </c>
       <c r="C9" s="1">
-        <v>30182</v>
+        <v>17358</v>
       </c>
       <c r="D9" s="1">
-        <v>36277</v>
+        <v>22457</v>
       </c>
       <c r="E9" s="1">
-        <v>43462</v>
+        <v>26856</v>
       </c>
       <c r="F9" s="1">
-        <v>54261</v>
+        <v>33891</v>
       </c>
       <c r="G9" s="1">
-        <v>65065</v>
+        <v>41418</v>
       </c>
       <c r="H9" s="1">
-        <v>76062</v>
+        <v>47852</v>
       </c>
       <c r="I9" s="1">
-        <v>83309</v>
+        <v>52379</v>
       </c>
       <c r="J9" s="1">
-        <v>97924</v>
+        <v>60386</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>20988</v>
+        <v>28388</v>
       </c>
       <c r="C10" s="1">
-        <v>20357</v>
+        <v>30182</v>
       </c>
       <c r="D10" s="1">
-        <v>26540</v>
+        <v>36277</v>
       </c>
       <c r="E10" s="1">
-        <v>31719</v>
+        <v>43462</v>
       </c>
       <c r="F10" s="1">
-        <v>40580</v>
+        <v>54261</v>
       </c>
       <c r="G10" s="1">
-        <v>48724</v>
+        <v>65065</v>
       </c>
       <c r="H10" s="1">
-        <v>56514</v>
+        <v>76062</v>
       </c>
       <c r="I10" s="1">
-        <v>61088</v>
+        <v>83309</v>
       </c>
       <c r="J10" s="1">
-        <v>71944</v>
+        <v>97924</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>27391</v>
+        <v>20988</v>
       </c>
       <c r="C11" s="1">
-        <v>28443</v>
+        <v>20357</v>
       </c>
       <c r="D11" s="1">
-        <v>33956</v>
+        <v>26540</v>
       </c>
       <c r="E11" s="1">
-        <v>40127</v>
+        <v>31719</v>
       </c>
       <c r="F11" s="1">
-        <v>50664</v>
+        <v>40580</v>
       </c>
       <c r="G11" s="1">
-        <v>65623</v>
+        <v>48724</v>
       </c>
       <c r="H11" s="1">
-        <v>76232</v>
+        <v>56514</v>
       </c>
       <c r="I11" s="1">
-        <v>80274</v>
+        <v>61088</v>
       </c>
       <c r="J11" s="1">
-        <v>98771</v>
+        <v>71944</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>21671</v>
+        <v>27391</v>
       </c>
       <c r="C12" s="1">
-        <v>21954</v>
+        <v>28443</v>
       </c>
       <c r="D12" s="1">
-        <v>27383</v>
+        <v>33956</v>
       </c>
       <c r="E12" s="1">
-        <v>32745</v>
+        <v>40127</v>
       </c>
       <c r="F12" s="1">
-        <v>42227</v>
+        <v>50664</v>
       </c>
       <c r="G12" s="1">
-        <v>50373</v>
+        <v>65623</v>
       </c>
       <c r="H12" s="1">
-        <v>58461</v>
+        <v>76232</v>
       </c>
       <c r="I12" s="1">
-        <v>64510</v>
+        <v>80274</v>
       </c>
       <c r="J12" s="1">
-        <v>76623</v>
+        <v>98771</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>25590</v>
+        <v>21671</v>
       </c>
       <c r="C13" s="1">
-        <v>19788</v>
+        <v>21954</v>
       </c>
       <c r="D13" s="1">
-        <v>15634</v>
+        <v>27383</v>
       </c>
       <c r="E13" s="1">
-        <v>13793</v>
+        <v>32745</v>
       </c>
       <c r="F13" s="1">
-        <v>16416</v>
+        <v>42227</v>
       </c>
       <c r="G13" s="1">
-        <v>21252</v>
+        <v>50373</v>
       </c>
       <c r="H13" s="1">
-        <v>24975</v>
+        <v>58461</v>
       </c>
       <c r="I13" s="1">
-        <v>27274</v>
+        <v>64510</v>
       </c>
       <c r="J13" s="1">
-        <v>32223</v>
+        <v>76623</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>23138</v>
+        <v>25590</v>
       </c>
       <c r="C14" s="1">
-        <v>23595</v>
+        <v>19788</v>
       </c>
       <c r="D14" s="1">
-        <v>29542</v>
+        <v>15634</v>
       </c>
       <c r="E14" s="1">
-        <v>35325</v>
+        <v>13793</v>
       </c>
       <c r="F14" s="1">
-        <v>44981</v>
+        <v>16416</v>
       </c>
       <c r="G14" s="1">
-        <v>56592</v>
+        <v>21252</v>
       </c>
       <c r="H14" s="1">
-        <v>67353</v>
+        <v>24975</v>
       </c>
       <c r="I14" s="1">
-        <v>73092</v>
+        <v>27274</v>
       </c>
       <c r="J14" s="1">
-        <v>89441</v>
+        <v>32223</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>23869</v>
+        <v>23138</v>
       </c>
       <c r="C15" s="1">
-        <v>23459</v>
+        <v>23595</v>
       </c>
       <c r="D15" s="1">
-        <v>29342</v>
+        <v>29542</v>
       </c>
       <c r="E15" s="1">
-        <v>34971</v>
+        <v>35325</v>
       </c>
       <c r="F15" s="1">
-        <v>45356</v>
+        <v>44981</v>
       </c>
       <c r="G15" s="1">
-        <v>55469</v>
+        <v>56592</v>
       </c>
       <c r="H15" s="1">
-        <v>64700</v>
+        <v>67353</v>
       </c>
       <c r="I15" s="1">
-        <v>69884</v>
+        <v>73092</v>
       </c>
       <c r="J15" s="1">
-        <v>85575</v>
+        <v>89441</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>25572</v>
+        <v>23869</v>
       </c>
       <c r="C16" s="1">
-        <v>24242</v>
+        <v>23459</v>
       </c>
       <c r="D16" s="1">
-        <v>32385</v>
+        <v>29342</v>
       </c>
       <c r="E16" s="1">
-        <v>39132</v>
+        <v>34971</v>
       </c>
       <c r="F16" s="1">
-        <v>50111</v>
+        <v>45356</v>
       </c>
       <c r="G16" s="1">
-        <v>63153</v>
+        <v>55469</v>
       </c>
       <c r="H16" s="1">
-        <v>75288</v>
+        <v>64700</v>
       </c>
       <c r="I16" s="1">
-        <v>82007</v>
+        <v>69884</v>
       </c>
       <c r="J16" s="1">
-        <v>96851</v>
+        <v>85575</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>25371</v>
+        <v>25572</v>
       </c>
       <c r="C17" s="1">
-        <v>26196</v>
+        <v>24242</v>
       </c>
       <c r="D17" s="1">
-        <v>31997</v>
+        <v>32385</v>
       </c>
       <c r="E17" s="1">
-        <v>37938</v>
+        <v>39132</v>
       </c>
       <c r="F17" s="1">
-        <v>48663</v>
+        <v>50111</v>
       </c>
       <c r="G17" s="1">
-        <v>61649</v>
+        <v>63153</v>
       </c>
       <c r="H17" s="1">
-        <v>72843</v>
+        <v>75288</v>
       </c>
       <c r="I17" s="1">
-        <v>78813</v>
+        <v>82007</v>
       </c>
       <c r="J17" s="1">
-        <v>95770</v>
+        <v>96851</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>21165</v>
+        <v>25371</v>
       </c>
       <c r="C18" s="1">
-        <v>21781</v>
+        <v>26196</v>
       </c>
       <c r="D18" s="1">
-        <v>26708</v>
+        <v>31997</v>
       </c>
       <c r="E18" s="1">
-        <v>31295</v>
+        <v>37938</v>
       </c>
       <c r="F18" s="1">
-        <v>40325</v>
+        <v>48663</v>
       </c>
       <c r="G18" s="1">
-        <v>48184</v>
+        <v>61649</v>
       </c>
       <c r="H18" s="1">
-        <v>55917</v>
+        <v>72843</v>
       </c>
       <c r="I18" s="1">
-        <v>59350</v>
+        <v>78813</v>
       </c>
       <c r="J18" s="1">
-        <v>70826</v>
+        <v>95770</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>23559</v>
+        <v>21165</v>
       </c>
       <c r="C19" s="1">
-        <v>23938</v>
+        <v>21781</v>
       </c>
       <c r="D19" s="1">
-        <v>30572</v>
+        <v>26708</v>
       </c>
       <c r="E19" s="1">
-        <v>36084</v>
+        <v>31295</v>
       </c>
       <c r="F19" s="1">
-        <v>45852</v>
+        <v>40325</v>
       </c>
       <c r="G19" s="1">
-        <v>55829</v>
+        <v>48184</v>
       </c>
       <c r="H19" s="1">
-        <v>65932</v>
+        <v>55917</v>
       </c>
       <c r="I19" s="1">
-        <v>71955</v>
+        <v>59350</v>
       </c>
       <c r="J19" s="1">
-        <v>87410</v>
+        <v>70826</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>18994</v>
+        <v>23559</v>
       </c>
       <c r="C20" s="1">
-        <v>18401</v>
+        <v>23938</v>
       </c>
       <c r="D20" s="1">
-        <v>24040</v>
+        <v>30572</v>
       </c>
       <c r="E20" s="1">
-        <v>28195</v>
+        <v>36084</v>
       </c>
       <c r="F20" s="1">
-        <v>36204</v>
+        <v>45852</v>
       </c>
       <c r="G20" s="1">
-        <v>43577</v>
+        <v>55829</v>
       </c>
       <c r="H20" s="1">
-        <v>50536</v>
+        <v>65932</v>
       </c>
       <c r="I20" s="1">
-        <v>55776</v>
+        <v>71955</v>
       </c>
       <c r="J20" s="1">
-        <v>67467</v>
+        <v>87410</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>26098</v>
+        <v>18994</v>
       </c>
       <c r="C21" s="1">
-        <v>26274</v>
+        <v>18401</v>
       </c>
       <c r="D21" s="1">
-        <v>32198</v>
+        <v>24040</v>
       </c>
       <c r="E21" s="1">
-        <v>38197</v>
+        <v>28195</v>
       </c>
       <c r="F21" s="1">
-        <v>48370</v>
+        <v>36204</v>
       </c>
       <c r="G21" s="1">
-        <v>56421</v>
+        <v>43577</v>
       </c>
       <c r="H21" s="1">
-        <v>66547</v>
+        <v>50536</v>
       </c>
       <c r="I21" s="1">
-        <v>75923</v>
+        <v>55776</v>
       </c>
       <c r="J21" s="1">
-        <v>92746</v>
+        <v>67467</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>21724</v>
+        <v>26098</v>
       </c>
       <c r="C22" s="1">
-        <v>20728</v>
+        <v>26274</v>
       </c>
       <c r="D22" s="1">
-        <v>27880</v>
+        <v>32198</v>
       </c>
       <c r="E22" s="1">
-        <v>32968</v>
+        <v>38197</v>
       </c>
       <c r="F22" s="1">
-        <v>41695</v>
+        <v>48370</v>
       </c>
       <c r="G22" s="1">
-        <v>50195</v>
+        <v>56421</v>
       </c>
       <c r="H22" s="1">
-        <v>58129</v>
+        <v>66547</v>
       </c>
       <c r="I22" s="1">
-        <v>63853</v>
+        <v>75923</v>
       </c>
       <c r="J22" s="1">
-        <v>76532</v>
+        <v>92746</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>22789</v>
+        <v>21724</v>
       </c>
       <c r="C23" s="1">
-        <v>22686</v>
+        <v>20728</v>
       </c>
       <c r="D23" s="1">
-        <v>29292</v>
+        <v>27880</v>
       </c>
       <c r="E23" s="1">
-        <v>34395</v>
+        <v>32968</v>
       </c>
       <c r="F23" s="1">
-        <v>43638</v>
+        <v>41695</v>
       </c>
       <c r="G23" s="1">
-        <v>50640</v>
+        <v>50195</v>
       </c>
       <c r="H23" s="1">
-        <v>58934</v>
+        <v>58129</v>
       </c>
       <c r="I23" s="1">
-        <v>65411</v>
+        <v>63853</v>
       </c>
       <c r="J23" s="1">
-        <v>78500</v>
+        <v>76532</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>21633</v>
+        <v>22789</v>
       </c>
       <c r="C24" s="1">
-        <v>21761</v>
+        <v>22686</v>
       </c>
       <c r="D24" s="1">
-        <v>26970</v>
+        <v>29292</v>
       </c>
       <c r="E24" s="1">
-        <v>32327</v>
+        <v>34395</v>
       </c>
       <c r="F24" s="1">
-        <v>41854</v>
+        <v>43638</v>
       </c>
       <c r="G24" s="1">
-        <v>50600</v>
+        <v>50640</v>
       </c>
       <c r="H24" s="1">
-        <v>59626</v>
+        <v>58934</v>
       </c>
       <c r="I24" s="1">
-        <v>64852</v>
+        <v>65411</v>
       </c>
       <c r="J24" s="1">
-        <v>79621</v>
+        <v>78500</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>19438</v>
+        <v>21633</v>
       </c>
       <c r="C25" s="1">
-        <v>18476</v>
+        <v>21761</v>
       </c>
       <c r="D25" s="1">
-        <v>23929</v>
+        <v>26970</v>
       </c>
       <c r="E25" s="1">
-        <v>28361</v>
+        <v>32327</v>
       </c>
       <c r="F25" s="1">
-        <v>36215</v>
+        <v>41854</v>
       </c>
       <c r="G25" s="1">
-        <v>42762</v>
+        <v>50600</v>
       </c>
       <c r="H25" s="1">
-        <v>49142</v>
+        <v>59626</v>
       </c>
       <c r="I25" s="1">
-        <v>54178</v>
+        <v>64852</v>
       </c>
       <c r="J25" s="1">
-        <v>64130</v>
+        <v>79621</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>23600</v>
+        <v>19438</v>
       </c>
       <c r="C26" s="1">
-        <v>23093</v>
+        <v>18476</v>
       </c>
       <c r="D26" s="1">
-        <v>28440</v>
+        <v>23929</v>
       </c>
       <c r="E26" s="1">
-        <v>33231</v>
+        <v>28361</v>
       </c>
       <c r="F26" s="1">
-        <v>42501</v>
+        <v>36215</v>
       </c>
       <c r="G26" s="1">
-        <v>51213</v>
+        <v>42762</v>
       </c>
       <c r="H26" s="1">
-        <v>59972</v>
+        <v>49142</v>
       </c>
       <c r="I26" s="1">
-        <v>65815</v>
+        <v>54178</v>
       </c>
       <c r="J26" s="1">
-        <v>76777</v>
+        <v>64130</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>55842</v>
+        <v>23600</v>
       </c>
       <c r="C27" s="1">
-        <v>62715</v>
+        <v>23093</v>
       </c>
       <c r="D27" s="1">
-        <v>76514</v>
+        <v>28440</v>
       </c>
       <c r="E27" s="1">
-        <v>92254</v>
+        <v>33231</v>
       </c>
       <c r="F27" s="1">
-        <v>118208</v>
+        <v>42501</v>
       </c>
       <c r="G27" s="1">
-        <v>143676</v>
+        <v>51213</v>
       </c>
       <c r="H27" s="1">
-        <v>173677</v>
+        <v>59972</v>
       </c>
       <c r="I27" s="1">
-        <v>182547</v>
+        <v>65815</v>
       </c>
       <c r="J27" s="1">
-        <v>225321</v>
+        <v>76777</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>55842</v>
+      </c>
+      <c r="C28" s="1">
+        <v>62715</v>
+      </c>
+      <c r="D28" s="1">
+        <v>76514</v>
+      </c>
+      <c r="E28" s="1">
+        <v>92254</v>
+      </c>
+      <c r="F28" s="1">
+        <v>118208</v>
+      </c>
+      <c r="G28" s="1">
+        <v>143676</v>
+      </c>
+      <c r="H28" s="1">
+        <v>173677</v>
+      </c>
+      <c r="I28" s="1">
+        <v>182547</v>
+      </c>
+      <c r="J28" s="1">
+        <v>225321</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B29" s="1">
         <v>26584</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>1</v>
       </c>
     </row>
